--- a/2-Empirical-Evidence/raw_data/ToPlotwithADH2021.xlsx
+++ b/2-Empirical-Evidence/raw_data/ToPlotwithADH2021.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jpvasquez/Library/CloudStorage/Dropbox/0-mycomputer/mydocuments/0-LSE/0-Research/NK_trade/JP/Data_Construction/RUV/2-Empirical-Evidence/raw_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vasquejp/Library/CloudStorage/Dropbox/0-mycomputer/mydocuments/0-LSE/0-Research/NK_trade/JP/Data_Construction/RUV/2-Empirical-Evidence/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72D27845-BE31-B242-BD2E-2B33C315EDAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E50461B-9A21-ED4F-A33D-A2A96C70CDE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5440" yWindow="5280" windowWidth="20160" windowHeight="9840" xr2:uid="{8A2CBD73-2D71-4561-AAA5-C0EE9F01368C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="1" xr2:uid="{8A2CBD73-2D71-4561-AAA5-C0EE9F01368C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="EMPIRICAL" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>Year</t>
   </si>
@@ -64,13 +65,26 @@
   <si>
     <t>nilf_07</t>
   </si>
+  <si>
+    <t>mfg</t>
+  </si>
+  <si>
+    <t>nmfg</t>
+  </si>
+  <si>
+    <t>unempl</t>
+  </si>
+  <si>
+    <t>nilf</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000000"/>
+    <numFmt numFmtId="169" formatCode="0.000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -174,7 +188,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -185,6 +199,9 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -203,9 +220,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -243,7 +260,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -349,7 +366,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -491,7 +508,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -501,8 +518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E41A1CD9-B997-4091-A101-0EC8AD4159E5}">
   <dimension ref="A1:DA26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1374,4 +1391,358 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5767B37-3EBB-BA4D-AA34-047E7F3E071A}">
+  <dimension ref="A1:E21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="5" width="16.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="8">
+        <v>2001</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="8">
+        <f>A2+1</f>
+        <v>2002</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="8">
+        <f t="shared" ref="A4:A21" si="0">A3+1</f>
+        <v>2003</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="8">
+        <f t="shared" si="0"/>
+        <v>2004</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="8">
+        <f t="shared" si="0"/>
+        <v>2005</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="8">
+        <f t="shared" si="0"/>
+        <v>2006</v>
+      </c>
+      <c r="B7" s="10">
+        <v>-0.64100000000000001</v>
+      </c>
+      <c r="C7" s="11">
+        <v>-0.16800000000000001</v>
+      </c>
+      <c r="D7" s="11">
+        <v>0.27400000000000002</v>
+      </c>
+      <c r="E7" s="12">
+        <v>0.53500000000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="8">
+        <f t="shared" si="0"/>
+        <v>2007</v>
+      </c>
+      <c r="B8" s="10">
+        <v>-0.59599999999999997</v>
+      </c>
+      <c r="C8" s="11">
+        <v>-0.17799999999999999</v>
+      </c>
+      <c r="D8" s="11">
+        <v>0.221</v>
+      </c>
+      <c r="E8" s="12">
+        <v>0.55300000000000005</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="8">
+        <f t="shared" si="0"/>
+        <v>2008</v>
+      </c>
+      <c r="B9" s="10">
+        <v>-0.58399999999999996</v>
+      </c>
+      <c r="C9" s="11">
+        <v>-0.13500000000000001</v>
+      </c>
+      <c r="D9" s="11">
+        <v>0.218</v>
+      </c>
+      <c r="E9" s="12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="8">
+        <f t="shared" si="0"/>
+        <v>2009</v>
+      </c>
+      <c r="B10" s="10">
+        <v>-0.56499999999999995</v>
+      </c>
+      <c r="C10" s="11">
+        <v>-0.13400000000000001</v>
+      </c>
+      <c r="D10" s="11">
+        <v>0.185</v>
+      </c>
+      <c r="E10" s="12">
+        <v>0.51400000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="8">
+        <f t="shared" si="0"/>
+        <v>2010</v>
+      </c>
+      <c r="B11" s="10">
+        <v>-0.53400000000000003</v>
+      </c>
+      <c r="C11" s="11">
+        <v>-0.107</v>
+      </c>
+      <c r="D11" s="11">
+        <v>0.156</v>
+      </c>
+      <c r="E11" s="12">
+        <v>0.48399999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="8">
+        <f t="shared" si="0"/>
+        <v>2011</v>
+      </c>
+      <c r="B12" s="10">
+        <v>-0.46700000000000003</v>
+      </c>
+      <c r="C12" s="11">
+        <v>-0.106</v>
+      </c>
+      <c r="D12" s="11">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="E12" s="12">
+        <v>0.45400000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="8">
+        <f t="shared" si="0"/>
+        <v>2012</v>
+      </c>
+      <c r="B13" s="10">
+        <v>-0.42499999999999999</v>
+      </c>
+      <c r="C13" s="11">
+        <v>-7.8200000000000006E-2</v>
+      </c>
+      <c r="D13" s="11">
+        <v>0.113</v>
+      </c>
+      <c r="E13" s="12">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="8">
+        <f t="shared" si="0"/>
+        <v>2013</v>
+      </c>
+      <c r="B14" s="10">
+        <v>-0.40200000000000002</v>
+      </c>
+      <c r="C14" s="11">
+        <v>-9.69E-2</v>
+      </c>
+      <c r="D14" s="11">
+        <v>0.111</v>
+      </c>
+      <c r="E14" s="12">
+        <v>0.38900000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="8">
+        <f t="shared" si="0"/>
+        <v>2014</v>
+      </c>
+      <c r="B15" s="10">
+        <v>-0.372</v>
+      </c>
+      <c r="C15" s="11">
+        <v>-0.115</v>
+      </c>
+      <c r="D15" s="11">
+        <v>9.4399999999999998E-2</v>
+      </c>
+      <c r="E15" s="12">
+        <v>0.39200000000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="8">
+        <f t="shared" si="0"/>
+        <v>2015</v>
+      </c>
+      <c r="B16" s="10">
+        <v>-0.34</v>
+      </c>
+      <c r="C16" s="11">
+        <v>-0.13100000000000001</v>
+      </c>
+      <c r="D16" s="11">
+        <v>7.1199999999999999E-2</v>
+      </c>
+      <c r="E16" s="12">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="8">
+        <f t="shared" si="0"/>
+        <v>2016</v>
+      </c>
+      <c r="B17" s="10">
+        <v>-0.311</v>
+      </c>
+      <c r="C17" s="11">
+        <v>-0.13</v>
+      </c>
+      <c r="D17" s="11">
+        <v>5.1900000000000002E-2</v>
+      </c>
+      <c r="E17" s="12">
+        <v>0.38900000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="8">
+        <f t="shared" si="0"/>
+        <v>2017</v>
+      </c>
+      <c r="B18" s="10">
+        <v>-0.29199999999999998</v>
+      </c>
+      <c r="C18" s="11">
+        <v>-0.128</v>
+      </c>
+      <c r="D18" s="11">
+        <v>5.6500000000000002E-2</v>
+      </c>
+      <c r="E18" s="12">
+        <v>0.36399999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="8">
+        <f t="shared" si="0"/>
+        <v>2018</v>
+      </c>
+      <c r="B19" s="10">
+        <v>-0.26400000000000001</v>
+      </c>
+      <c r="C19" s="11">
+        <v>-0.14499999999999999</v>
+      </c>
+      <c r="D19" s="11">
+        <v>5.8500000000000003E-2</v>
+      </c>
+      <c r="E19" s="12">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="8">
+        <f>A19+1</f>
+        <v>2019</v>
+      </c>
+      <c r="B20" s="10">
+        <v>-0.254</v>
+      </c>
+      <c r="C20" s="11">
+        <v>-0.115</v>
+      </c>
+      <c r="D20" s="11">
+        <v>5.1499999999999997E-2</v>
+      </c>
+      <c r="E20" s="12">
+        <v>0.318</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="8">
+        <f t="shared" si="0"/>
+        <v>2020</v>
+      </c>
+      <c r="B21" s="10">
+        <v>-0.247</v>
+      </c>
+      <c r="C21" s="11">
+        <v>-8.2299999999999998E-2</v>
+      </c>
+      <c r="D21" s="11">
+        <v>2.9700000000000001E-2</v>
+      </c>
+      <c r="E21" s="12">
+        <v>0.3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/2-Empirical-Evidence/raw_data/ToPlotwithADH2021.xlsx
+++ b/2-Empirical-Evidence/raw_data/ToPlotwithADH2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vasquejp/Library/CloudStorage/Dropbox/0-mycomputer/mydocuments/0-LSE/0-Research/NK_trade/JP/Data_Construction/RUV/2-Empirical-Evidence/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E50461B-9A21-ED4F-A33D-A2A96C70CDE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A705DEB2-005A-4E47-A026-048794A27876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="1" xr2:uid="{8A2CBD73-2D71-4561-AAA5-C0EE9F01368C}"/>
+    <workbookView xWindow="13920" yWindow="1260" windowWidth="33720" windowHeight="20200" activeTab="1" xr2:uid="{8A2CBD73-2D71-4561-AAA5-C0EE9F01368C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -82,9 +82,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0000000"/>
-    <numFmt numFmtId="169" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -188,7 +189,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -199,9 +200,10 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1395,10 +1397,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5767B37-3EBB-BA4D-AA34-047E7F3E071A}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1480,10 +1482,10 @@
       <c r="B7" s="10">
         <v>-0.64100000000000001</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="13">
         <v>-0.16800000000000001</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="13">
         <v>0.27400000000000002</v>
       </c>
       <c r="E7" s="12">
@@ -1498,10 +1500,10 @@
       <c r="B8" s="10">
         <v>-0.59599999999999997</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="13">
         <v>-0.17799999999999999</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="13">
         <v>0.221</v>
       </c>
       <c r="E8" s="12">
@@ -1516,10 +1518,10 @@
       <c r="B9" s="10">
         <v>-0.58399999999999996</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="13">
         <v>-0.13500000000000001</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="13">
         <v>0.218</v>
       </c>
       <c r="E9" s="12">
@@ -1534,10 +1536,10 @@
       <c r="B10" s="10">
         <v>-0.56499999999999995</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="13">
         <v>-0.13400000000000001</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="13">
         <v>0.185</v>
       </c>
       <c r="E10" s="12">
@@ -1552,10 +1554,10 @@
       <c r="B11" s="10">
         <v>-0.53400000000000003</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="13">
         <v>-0.107</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="13">
         <v>0.156</v>
       </c>
       <c r="E11" s="12">
@@ -1570,10 +1572,10 @@
       <c r="B12" s="10">
         <v>-0.46700000000000003</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="13">
         <v>-0.106</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="13">
         <v>0.11899999999999999</v>
       </c>
       <c r="E12" s="12">
@@ -1588,10 +1590,10 @@
       <c r="B13" s="10">
         <v>-0.42499999999999999</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13" s="13">
         <v>-7.8200000000000006E-2</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D13" s="13">
         <v>0.113</v>
       </c>
       <c r="E13" s="12">
@@ -1606,10 +1608,10 @@
       <c r="B14" s="10">
         <v>-0.40200000000000002</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="13">
         <v>-9.69E-2</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D14" s="13">
         <v>0.111</v>
       </c>
       <c r="E14" s="12">
@@ -1624,10 +1626,10 @@
       <c r="B15" s="10">
         <v>-0.372</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C15" s="13">
         <v>-0.115</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D15" s="13">
         <v>9.4399999999999998E-2</v>
       </c>
       <c r="E15" s="12">
@@ -1642,10 +1644,10 @@
       <c r="B16" s="10">
         <v>-0.34</v>
       </c>
-      <c r="C16" s="11">
+      <c r="C16" s="13">
         <v>-0.13100000000000001</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D16" s="13">
         <v>7.1199999999999999E-2</v>
       </c>
       <c r="E16" s="12">
@@ -1660,10 +1662,10 @@
       <c r="B17" s="10">
         <v>-0.311</v>
       </c>
-      <c r="C17" s="11">
+      <c r="C17" s="13">
         <v>-0.13</v>
       </c>
-      <c r="D17" s="11">
+      <c r="D17" s="13">
         <v>5.1900000000000002E-2</v>
       </c>
       <c r="E17" s="12">
@@ -1678,10 +1680,10 @@
       <c r="B18" s="10">
         <v>-0.29199999999999998</v>
       </c>
-      <c r="C18" s="11">
+      <c r="C18" s="13">
         <v>-0.128</v>
       </c>
-      <c r="D18" s="11">
+      <c r="D18" s="13">
         <v>5.6500000000000002E-2</v>
       </c>
       <c r="E18" s="12">
@@ -1696,10 +1698,10 @@
       <c r="B19" s="10">
         <v>-0.26400000000000001</v>
       </c>
-      <c r="C19" s="11">
+      <c r="C19" s="13">
         <v>-0.14499999999999999</v>
       </c>
-      <c r="D19" s="11">
+      <c r="D19" s="13">
         <v>5.8500000000000003E-2</v>
       </c>
       <c r="E19" s="12">
@@ -1714,10 +1716,10 @@
       <c r="B20" s="10">
         <v>-0.254</v>
       </c>
-      <c r="C20" s="11">
+      <c r="C20" s="13">
         <v>-0.115</v>
       </c>
-      <c r="D20" s="11">
+      <c r="D20" s="13">
         <v>5.1499999999999997E-2</v>
       </c>
       <c r="E20" s="12">
@@ -1732,15 +1734,18 @@
       <c r="B21" s="10">
         <v>-0.247</v>
       </c>
-      <c r="C21" s="11">
+      <c r="C21" s="13">
         <v>-8.2299999999999998E-2</v>
       </c>
-      <c r="D21" s="11">
+      <c r="D21" s="13">
         <v>2.9700000000000001E-2</v>
       </c>
       <c r="E21" s="12">
         <v>0.3</v>
       </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E22" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/2-Empirical-Evidence/raw_data/ToPlotwithADH2021.xlsx
+++ b/2-Empirical-Evidence/raw_data/ToPlotwithADH2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vasquejp/Library/CloudStorage/Dropbox/0-mycomputer/mydocuments/0-LSE/0-Research/NK_trade/JP/Data_Construction/RUV/2-Empirical-Evidence/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A705DEB2-005A-4E47-A026-048794A27876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24CAF58F-867C-8A40-B270-563D2B67BC20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13920" yWindow="1260" windowWidth="33720" windowHeight="20200" activeTab="1" xr2:uid="{8A2CBD73-2D71-4561-AAA5-C0EE9F01368C}"/>
+    <workbookView xWindow="4680" yWindow="500" windowWidth="33720" windowHeight="20180" xr2:uid="{8A2CBD73-2D71-4561-AAA5-C0EE9F01368C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -520,8 +520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E41A1CD9-B997-4091-A101-0EC8AD4159E5}">
   <dimension ref="A1:DA26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -563,28 +563,28 @@
         <v>2001</v>
       </c>
       <c r="B2" s="2">
-        <v>-9.3549566408335005E-2</v>
+        <v>-0.111908730566753</v>
       </c>
       <c r="C2" s="3">
-        <v>-7.2606134586559304E-2</v>
+        <v>-5.9500491509698002E-2</v>
       </c>
       <c r="D2" s="3">
-        <v>-2.4156429089703699E-3</v>
+        <v>1.6461920599819099E-3</v>
       </c>
       <c r="E2" s="4">
-        <v>0.16857134390386999</v>
+        <v>0.16976303001648599</v>
       </c>
       <c r="F2" s="2">
-        <v>-0.113769272874766</v>
+        <v>-0.130288892879735</v>
       </c>
       <c r="G2" s="3">
-        <v>-8.5151403027653699E-2</v>
+        <v>-6.6205065145923905E-2</v>
       </c>
       <c r="H2" s="3">
-        <v>-1.4184936884523399E-3</v>
+        <v>1.51320024307274E-3</v>
       </c>
       <c r="I2" s="4">
-        <v>0.200339169590869</v>
+        <v>0.194980757782585</v>
       </c>
     </row>
     <row r="3" spans="1:105" x14ac:dyDescent="0.2">
@@ -593,28 +593,28 @@
         <v>2002</v>
       </c>
       <c r="B3" s="2">
-        <v>-0.18690153400639201</v>
+        <v>-0.21360698733703301</v>
       </c>
       <c r="C3" s="3">
-        <v>-0.114036917808648</v>
+        <v>-9.2515689887355507E-2</v>
       </c>
       <c r="D3" s="3">
-        <v>3.4287399631819399E-2</v>
+        <v>3.8719393592960803E-2</v>
       </c>
       <c r="E3" s="4">
-        <v>0.266651052183208</v>
+        <v>0.26740328363142102</v>
       </c>
       <c r="F3" s="2">
-        <v>-0.23054768861203101</v>
+        <v>-0.25255504835555098</v>
       </c>
       <c r="G3" s="3">
-        <v>-0.131398484532255</v>
+        <v>-0.10079119055905</v>
       </c>
       <c r="H3" s="3">
-        <v>4.5514869246457999E-2</v>
+        <v>4.53874620416405E-2</v>
       </c>
       <c r="I3" s="4">
-        <v>0.31643130389783097</v>
+        <v>0.30795877687296302</v>
       </c>
     </row>
     <row r="4" spans="1:105" x14ac:dyDescent="0.2">
@@ -623,28 +623,28 @@
         <v>2003</v>
       </c>
       <c r="B4" s="2">
-        <v>-0.30647171424724801</v>
+        <v>-0.34093985115634601</v>
       </c>
       <c r="C4" s="3">
-        <v>-0.15930142971501299</v>
+        <v>-0.12801763267159699</v>
       </c>
       <c r="D4" s="3">
-        <v>9.1361991772668003E-2</v>
+        <v>9.4853371134447001E-2</v>
       </c>
       <c r="E4" s="4">
-        <v>0.37441115218958898</v>
+        <v>0.37410411269349603</v>
       </c>
       <c r="F4" s="2">
-        <v>-0.37245503759485799</v>
+        <v>-0.40045066250355499</v>
       </c>
       <c r="G4" s="3">
-        <v>-0.17964625224182601</v>
+        <v>-0.136260778993674</v>
       </c>
       <c r="H4" s="3">
-        <v>0.111017068037964</v>
+        <v>0.107250275901871</v>
       </c>
       <c r="I4" s="4">
-        <v>0.44108422179871998</v>
+        <v>0.42946116559535602</v>
       </c>
       <c r="W4" s="1"/>
       <c r="X4" s="1"/>
@@ -736,28 +736,28 @@
         <v>2004</v>
       </c>
       <c r="B5" s="2">
-        <v>-0.39907519506571598</v>
+        <v>-0.43837259391193401</v>
       </c>
       <c r="C5" s="3">
-        <v>-0.18965458367093799</v>
+        <v>-0.15135262918675099</v>
       </c>
       <c r="D5" s="3">
-        <v>0.14311466433209899</v>
+        <v>0.14582145027424601</v>
       </c>
       <c r="E5" s="4">
-        <v>0.44561511440455498</v>
+        <v>0.44390377282444199</v>
       </c>
       <c r="F5" s="2">
-        <v>-0.47770375032715501</v>
+        <v>-0.51137707515585895</v>
       </c>
       <c r="G5" s="3">
-        <v>-0.20683555070439899</v>
+        <v>-0.155672709450731</v>
       </c>
       <c r="H5" s="3">
-        <v>0.168186550807152</v>
+        <v>0.16328923252392499</v>
       </c>
       <c r="I5" s="4">
-        <v>0.51635275022439897</v>
+        <v>0.50376055208265902</v>
       </c>
     </row>
     <row r="6" spans="1:105" x14ac:dyDescent="0.2">
@@ -766,28 +766,28 @@
         <v>2005</v>
       </c>
       <c r="B6" s="2">
-        <v>-0.45978968378068802</v>
+        <v>-0.50221489266342001</v>
       </c>
       <c r="C6" s="3">
-        <v>-0.212594441845534</v>
+        <v>-0.169261132102275</v>
       </c>
       <c r="D6" s="3">
-        <v>0.174961024902694</v>
+        <v>0.176525074426615</v>
       </c>
       <c r="E6" s="4">
-        <v>0.49742310072352802</v>
+        <v>0.49495095033907599</v>
       </c>
       <c r="F6" s="2">
-        <v>-0.54093608416106498</v>
+        <v>-0.57966704223910004</v>
       </c>
       <c r="G6" s="3">
-        <v>-0.22109017009011001</v>
+        <v>-0.16600267435907001</v>
       </c>
       <c r="H6" s="3">
-        <v>0.20205177612578801</v>
+        <v>0.19696882580817099</v>
       </c>
       <c r="I6" s="4">
-        <v>0.55997447812538403</v>
+        <v>0.54870089078999995</v>
       </c>
     </row>
     <row r="7" spans="1:105" x14ac:dyDescent="0.2">
@@ -796,28 +796,28 @@
         <v>2006</v>
       </c>
       <c r="B7" s="2">
-        <v>-0.504076091140645</v>
+        <v>-0.548910091253907</v>
       </c>
       <c r="C7" s="3">
-        <v>-0.22927329374469901</v>
+        <v>-0.18295038743030601</v>
       </c>
       <c r="D7" s="3">
-        <v>0.199832642732717</v>
+        <v>0.20037066338368201</v>
       </c>
       <c r="E7" s="4">
-        <v>0.53351674215263101</v>
+        <v>0.53148981530053596</v>
       </c>
       <c r="F7" s="2">
-        <v>-0.58476113232654503</v>
+        <v>-0.62824830013720001</v>
       </c>
       <c r="G7" s="3">
-        <v>-0.223231046503857</v>
+        <v>-0.168145147715594</v>
       </c>
       <c r="H7" s="3">
-        <v>0.234079066831238</v>
+        <v>0.22974829962815399</v>
       </c>
       <c r="I7" s="4">
-        <v>0.57391311199915696</v>
+        <v>0.56664514822464196</v>
       </c>
     </row>
     <row r="8" spans="1:105" x14ac:dyDescent="0.2">
@@ -826,28 +826,28 @@
         <v>2007</v>
       </c>
       <c r="B8" s="2">
-        <v>-0.53356018290448304</v>
+        <v>-0.58053753920100204</v>
       </c>
       <c r="C8" s="3">
-        <v>-0.240234269736848</v>
+        <v>-0.193441585508559</v>
       </c>
       <c r="D8" s="3">
-        <v>0.22092798143390899</v>
+        <v>0.220994992188696</v>
       </c>
       <c r="E8" s="4">
-        <v>0.55286647120742205</v>
+        <v>0.55298413252086098</v>
       </c>
       <c r="F8" s="2">
-        <v>-0.55807111550972399</v>
+        <v>-0.60815582227099596</v>
       </c>
       <c r="G8" s="3">
-        <v>-0.21595060487098899</v>
+        <v>-0.165806470828679</v>
       </c>
       <c r="H8" s="3">
-        <v>0.22100548028772199</v>
+        <v>0.220985119679555</v>
       </c>
       <c r="I8" s="4">
-        <v>0.553016240092989</v>
+        <v>0.55297717342012298</v>
       </c>
     </row>
     <row r="9" spans="1:105" x14ac:dyDescent="0.2">
@@ -856,28 +856,28 @@
         <v>2008</v>
       </c>
       <c r="B9" s="2">
-        <v>-0.47963388191617501</v>
+        <v>-0.53183903346925698</v>
       </c>
       <c r="C9" s="3">
-        <v>-0.24672712787278001</v>
+        <v>-0.202554116211424</v>
       </c>
       <c r="D9" s="3">
-        <v>0.17305290293584299</v>
+        <v>0.176753513641532</v>
       </c>
       <c r="E9" s="4">
-        <v>0.55330810685311105</v>
+        <v>0.55763963603914901</v>
       </c>
       <c r="F9" s="2">
-        <v>-0.48643572034104099</v>
+        <v>-0.54397682448539397</v>
       </c>
       <c r="G9" s="3">
-        <v>-0.20076445790052699</v>
+        <v>-0.15923765660092101</v>
       </c>
       <c r="H9" s="3">
-        <v>0.183709289758934</v>
+        <v>0.19051022521059799</v>
       </c>
       <c r="I9" s="4">
-        <v>0.50349088848263401</v>
+        <v>0.512704255875716</v>
       </c>
     </row>
     <row r="10" spans="1:105" x14ac:dyDescent="0.2">
@@ -886,28 +886,28 @@
         <v>2009</v>
       </c>
       <c r="B10" s="2">
-        <v>-0.45152657943580099</v>
+        <v>-0.50768058665862204</v>
       </c>
       <c r="C10" s="3">
-        <v>-0.247444153954303</v>
+        <v>-0.20644931475379599</v>
       </c>
       <c r="D10" s="3">
-        <v>0.151020391030942</v>
+        <v>0.157045052485034</v>
       </c>
       <c r="E10" s="4">
-        <v>0.54795034235916296</v>
+        <v>0.55708484892738297</v>
       </c>
       <c r="F10" s="2">
-        <v>-0.37405821705348502</v>
+        <v>-0.43964035045157202</v>
       </c>
       <c r="G10" s="3">
-        <v>-0.180462613686767</v>
+        <v>-0.149306131512976</v>
       </c>
       <c r="H10" s="3">
-        <v>0.118762273929956</v>
+        <v>0.13441778407958399</v>
       </c>
       <c r="I10" s="4">
-        <v>0.43575855681029302</v>
+        <v>0.45452869788496397</v>
       </c>
     </row>
     <row r="11" spans="1:105" x14ac:dyDescent="0.2">
@@ -916,28 +916,28 @@
         <v>2010</v>
       </c>
       <c r="B11" s="2">
-        <v>-0.45151727562615201</v>
+        <v>-0.50993622679001205</v>
       </c>
       <c r="C11" s="3">
-        <v>-0.242434440048031</v>
+        <v>-0.20447908948697699</v>
       </c>
       <c r="D11" s="3">
-        <v>0.15311074328766799</v>
+        <v>0.159587648306761</v>
       </c>
       <c r="E11" s="4">
-        <v>0.54084097238651496</v>
+        <v>0.55482766797022798</v>
       </c>
       <c r="F11" s="2">
-        <v>-0.27936551058897902</v>
+        <v>-0.35305755306350201</v>
       </c>
       <c r="G11" s="3">
-        <v>-0.15686964450565299</v>
+        <v>-0.13481790531381599</v>
       </c>
       <c r="H11" s="3">
-        <v>7.0285111759082905E-2</v>
+        <v>9.5648957375108895E-2</v>
       </c>
       <c r="I11" s="4">
-        <v>0.36595004333554798</v>
+        <v>0.39222650100221101</v>
       </c>
     </row>
     <row r="12" spans="1:105" x14ac:dyDescent="0.2">
@@ -946,28 +946,28 @@
         <v>2011</v>
       </c>
       <c r="B12" s="2">
-        <v>-0.47770177912734502</v>
+        <v>-0.536617176644274</v>
       </c>
       <c r="C12" s="3">
-        <v>-0.23300144461347599</v>
+        <v>-0.198547032782</v>
       </c>
       <c r="D12" s="3">
-        <v>0.181961299152503</v>
+        <v>0.187262041813784</v>
       </c>
       <c r="E12" s="4">
-        <v>0.52874192458831604</v>
+        <v>0.547902167612491</v>
       </c>
       <c r="F12" s="2">
-        <v>-0.20422247748487099</v>
+        <v>-0.27971464934194901</v>
       </c>
       <c r="G12" s="3">
-        <v>-0.13311707132116199</v>
+        <v>-0.117851684867835</v>
       </c>
       <c r="H12" s="3">
-        <v>3.49634241131003E-2</v>
+        <v>6.5326369161664302E-2</v>
       </c>
       <c r="I12" s="4">
-        <v>0.30237612469292902</v>
+        <v>0.33223996504812198</v>
       </c>
     </row>
     <row r="13" spans="1:105" x14ac:dyDescent="0.2">
@@ -976,28 +976,28 @@
         <v>2012</v>
       </c>
       <c r="B13" s="2">
-        <v>-0.45522343238083801</v>
+        <v>-0.51660144563364996</v>
       </c>
       <c r="C13" s="3">
-        <v>-0.22075266552101</v>
+        <v>-0.19197267517955499</v>
       </c>
       <c r="D13" s="3">
-        <v>0.17349579513375901</v>
+        <v>0.18035707568210499</v>
       </c>
       <c r="E13" s="4">
-        <v>0.50248030276809097</v>
+        <v>0.52821704513110102</v>
       </c>
       <c r="F13" s="2">
-        <v>-0.15114210645525</v>
+        <v>-0.217469607466797</v>
       </c>
       <c r="G13" s="3">
-        <v>-0.111127423928937</v>
+        <v>-0.100559034588348</v>
       </c>
       <c r="H13" s="3">
-        <v>1.32554812845069E-2</v>
+        <v>4.0210024501904099E-2</v>
       </c>
       <c r="I13" s="4">
-        <v>0.249014049099679</v>
+        <v>0.277818617553239</v>
       </c>
     </row>
     <row r="14" spans="1:105" x14ac:dyDescent="0.2">
@@ -1006,28 +1006,28 @@
         <v>2013</v>
       </c>
       <c r="B14" s="2">
-        <v>-0.39405194066550397</v>
+        <v>-0.45978946412633598</v>
       </c>
       <c r="C14" s="3">
-        <v>-0.20618733747983001</v>
+        <v>-0.18495243507391099</v>
       </c>
       <c r="D14" s="3">
-        <v>0.13717922299384999</v>
+        <v>0.148112534759369</v>
       </c>
       <c r="E14" s="4">
-        <v>0.46306005515148202</v>
+        <v>0.49662936444088002</v>
       </c>
       <c r="F14" s="2">
-        <v>-0.11858830223741799</v>
+        <v>-0.16790522043527001</v>
       </c>
       <c r="G14" s="3">
-        <v>-9.1886541496723997E-2</v>
+        <v>-8.4310113422746094E-2</v>
       </c>
       <c r="H14" s="3">
-        <v>3.7500821135236198E-3</v>
+        <v>2.1336584939142599E-2</v>
       </c>
       <c r="I14" s="4">
-        <v>0.20672476162061801</v>
+        <v>0.230878748918873</v>
       </c>
     </row>
     <row r="15" spans="1:105" x14ac:dyDescent="0.2">
@@ -1036,28 +1036,28 @@
         <v>2014</v>
       </c>
       <c r="B15" s="2">
-        <v>-0.34007935725725702</v>
+        <v>-0.41048526595238699</v>
       </c>
       <c r="C15" s="3">
-        <v>-0.18883637819086499</v>
+        <v>-0.17543002956435499</v>
       </c>
       <c r="D15" s="3">
-        <v>0.110501105974647</v>
+        <v>0.125831799351414</v>
       </c>
       <c r="E15" s="4">
-        <v>0.41841462947347502</v>
+        <v>0.46008349616533001</v>
       </c>
       <c r="F15" s="2">
-        <v>-9.9598036913117194E-2</v>
+        <v>-0.13224758726861999</v>
       </c>
       <c r="G15" s="3">
-        <v>-7.5603574883091301E-2</v>
+        <v>-6.96726826905575E-2</v>
       </c>
       <c r="H15" s="3">
-        <v>1.1276914850343899E-3</v>
+        <v>9.7297192867421903E-3</v>
       </c>
       <c r="I15" s="4">
-        <v>0.174073920311173</v>
+        <v>0.19219055067243601</v>
       </c>
     </row>
     <row r="16" spans="1:105" x14ac:dyDescent="0.2">
@@ -1066,28 +1066,28 @@
         <v>2015</v>
       </c>
       <c r="B16" s="2">
-        <v>-0.29217335365773101</v>
+        <v>-0.36722315416526602</v>
       </c>
       <c r="C16" s="3">
-        <v>-0.16981265908877999</v>
+        <v>-0.16370036766533</v>
       </c>
       <c r="D16" s="3">
-        <v>8.9158700494932505E-2</v>
+        <v>0.108796926899364</v>
       </c>
       <c r="E16" s="4">
-        <v>0.372827312251577</v>
+        <v>0.422126594931233</v>
       </c>
       <c r="F16" s="2">
-        <v>-8.6708797908836802E-2</v>
+        <v>-0.10884644430446801</v>
       </c>
       <c r="G16" s="3">
-        <v>-6.2361997446191302E-2</v>
+        <v>-5.6852518681894303E-2</v>
       </c>
       <c r="H16" s="3">
-        <v>1.9308099776864899E-4</v>
+        <v>4.3242587957168701E-3</v>
       </c>
       <c r="I16" s="4">
-        <v>0.14887771435725999</v>
+        <v>0.16137470419064601</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -1096,28 +1096,28 @@
         <v>2016</v>
       </c>
       <c r="B17" s="2">
-        <v>-0.248771584636585</v>
+        <v>-0.32873395028853702</v>
       </c>
       <c r="C17" s="3">
-        <v>-0.15038324115394699</v>
+        <v>-0.15059972589409201</v>
       </c>
       <c r="D17" s="3">
-        <v>7.0559489374333095E-2</v>
+        <v>9.4751126286582193E-2</v>
       </c>
       <c r="E17" s="4">
-        <v>0.32859533641619698</v>
+        <v>0.38458254989604801</v>
       </c>
       <c r="F17" s="2">
-        <v>-7.7578505088969296E-2</v>
+        <v>-9.3154355141521497E-2</v>
       </c>
       <c r="G17" s="3">
-        <v>-5.1800323828872397E-2</v>
+        <v>-4.5958960602288497E-2</v>
       </c>
       <c r="H17" s="3">
-        <v>6.2328186583183301E-5</v>
+        <v>1.9401126688001801E-3</v>
       </c>
       <c r="I17" s="4">
-        <v>0.129316500731261</v>
+        <v>0.13717320307500999</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -1126,28 +1126,28 @@
         <v>2017</v>
       </c>
       <c r="B18" s="2">
-        <v>-0.20909970408305401</v>
+        <v>-0.29400156546914802</v>
       </c>
       <c r="C18" s="3">
-        <v>-0.131543685538352</v>
+        <v>-0.13692622354206599</v>
       </c>
       <c r="D18" s="3">
-        <v>5.36059218248017E-2</v>
+        <v>8.2519898670016606E-2</v>
       </c>
       <c r="E18" s="4">
-        <v>0.287037467796604</v>
+        <v>0.34840789034119701</v>
       </c>
       <c r="F18" s="2">
-        <v>-7.0439520842282194E-2</v>
+        <v>-8.1945263418446004E-2</v>
       </c>
       <c r="G18" s="3">
-        <v>-4.3514060327346303E-2</v>
+        <v>-3.6998886383217203E-2</v>
       </c>
       <c r="H18" s="3">
-        <v>-2.2516213043637201E-5</v>
+        <v>7.5135516653747803E-4</v>
       </c>
       <c r="I18" s="4">
-        <v>0.113976097382672</v>
+        <v>0.118192794635125</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -1156,28 +1156,28 @@
         <v>2018</v>
       </c>
       <c r="B19" s="2">
-        <v>-0.17260295580330001</v>
+        <v>-0.26229991512238099</v>
       </c>
       <c r="C19" s="3">
-        <v>-0.114042986009179</v>
+        <v>-0.12329092986974501</v>
       </c>
       <c r="D19" s="3">
-        <v>3.7636130507683802E-2</v>
+        <v>7.1481658588557206E-2</v>
       </c>
       <c r="E19" s="4">
-        <v>0.24900981130479499</v>
+        <v>0.314109186403569</v>
       </c>
       <c r="F19" s="2">
-        <v>-6.4781519783899996E-2</v>
+        <v>-7.3712946192796905E-2</v>
       </c>
       <c r="G19" s="3">
-        <v>-3.7038150231161603E-2</v>
+        <v>-2.9782087629798101E-2</v>
       </c>
       <c r="H19" s="3">
-        <v>1.6827831433272899E-16</v>
+        <v>2.34690873656126E-4</v>
       </c>
       <c r="I19" s="4">
-        <v>0.101819670015061</v>
+        <v>0.103260342948939</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -1186,28 +1186,28 @@
         <v>2019</v>
       </c>
       <c r="B20" s="2">
-        <v>-0.140973636696998</v>
+        <v>-0.23329261956376099</v>
       </c>
       <c r="C20" s="3">
-        <v>-9.8327048881715895E-2</v>
+        <v>-0.11010104281804001</v>
       </c>
       <c r="D20" s="3">
-        <v>2.4032184707451099E-2</v>
+        <v>6.1437328108859601E-2</v>
       </c>
       <c r="E20" s="4">
-        <v>0.21526850087126301</v>
+        <v>0.28195633427294198</v>
       </c>
       <c r="F20" s="2">
-        <v>-6.0080168262688902E-2</v>
+        <v>-6.7480943695072904E-2</v>
       </c>
       <c r="G20" s="3">
-        <v>-3.1987855145838101E-2</v>
+        <v>-2.40407112281192E-2</v>
       </c>
       <c r="H20" s="3">
-        <v>1.10185444600187E-16</v>
+        <v>7.6918893912030197E-5</v>
       </c>
       <c r="I20" s="4">
-        <v>9.2068023408526406E-2</v>
+        <v>9.1444736029278703E-2</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -1216,28 +1216,28 @@
         <v>2020</v>
       </c>
       <c r="B21" s="2">
-        <v>-0.11559979192294099</v>
+        <v>-0.20657872347494299</v>
       </c>
       <c r="C21" s="3">
-        <v>-8.4599546871963499E-2</v>
+        <v>-9.7609559996180095E-2</v>
       </c>
       <c r="D21" s="3">
-        <v>1.39024929628839E-2</v>
+        <v>5.2123781471446903E-2</v>
       </c>
       <c r="E21" s="4">
-        <v>0.18629684583202</v>
+        <v>0.25206450199967601</v>
       </c>
       <c r="F21" s="2">
-        <v>-5.61242893417521E-2</v>
+        <v>-6.2547062620415705E-2</v>
       </c>
       <c r="G21" s="3">
-        <v>-2.80252697040578E-2</v>
+        <v>-1.9519266859309398E-2</v>
       </c>
       <c r="H21" s="3">
-        <v>2.8806774644204999E-16</v>
+        <v>4.8347665644811497E-5</v>
       </c>
       <c r="I21" s="4">
-        <v>8.4149559045809896E-2</v>
+        <v>8.2017981814079696E-2</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -1246,28 +1246,28 @@
         <v>2021</v>
       </c>
       <c r="B22" s="2">
-        <v>-9.7176832030347202E-2</v>
+        <v>-0.18186151617781299</v>
       </c>
       <c r="C22" s="3">
-        <v>-7.2774925336500096E-2</v>
+        <v>-8.5956784929816094E-2</v>
       </c>
       <c r="D22" s="3">
-        <v>7.7895972092022602E-3</v>
+        <v>4.3344718144119103E-2</v>
       </c>
       <c r="E22" s="4">
-        <v>0.16216216015764501</v>
+        <v>0.224473582963509</v>
       </c>
       <c r="F22" s="2">
-        <v>-5.2748439248367002E-2</v>
+        <v>-5.8437393503104798E-2</v>
       </c>
       <c r="G22" s="3">
-        <v>-2.4891453685240102E-2</v>
+        <v>-1.5996729147535999E-2</v>
       </c>
       <c r="H22" s="3">
-        <v>1.3763834617620801E-16</v>
+        <v>1.26384109608492E-5</v>
       </c>
       <c r="I22" s="4">
-        <v>7.7639892933608401E-2</v>
+        <v>7.4421484239680202E-2</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -1276,28 +1276,28 @@
         <v>2022</v>
       </c>
       <c r="B23" s="2">
-        <v>-8.4155944739910601E-2</v>
+        <v>-0.158981906738905</v>
       </c>
       <c r="C23" s="3">
-        <v>-6.2714222633355104E-2</v>
+        <v>-7.5223102852712095E-2</v>
       </c>
       <c r="D23" s="3">
-        <v>4.4445799220787204E-3</v>
+        <v>3.49966550619304E-2</v>
       </c>
       <c r="E23" s="4">
-        <v>0.142425587451187</v>
+        <v>0.19920835452968499</v>
       </c>
       <c r="F23" s="2">
-        <v>-4.9832000632115001E-2</v>
+        <v>-5.4989150616087799E-2</v>
       </c>
       <c r="G23" s="3">
-        <v>-2.2389980550971501E-2</v>
+        <v>-1.32585423617079E-2</v>
       </c>
       <c r="H23" s="3">
-        <v>1.8208912499748701E-17</v>
+        <v>1.4207682041735501E-5</v>
       </c>
       <c r="I23" s="4">
-        <v>7.2221981183085399E-2</v>
+        <v>6.8233485295754195E-2</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
@@ -1306,28 +1306,28 @@
         <v>2023</v>
       </c>
       <c r="B24" s="2">
-        <v>-7.4713732756429105E-2</v>
+        <v>-0.13818631097640999</v>
       </c>
       <c r="C24" s="3">
-        <v>-5.4265077673673903E-2</v>
+        <v>-6.5465883608492106E-2</v>
       </c>
       <c r="D24" s="3">
-        <v>2.5641978814379299E-3</v>
+        <v>2.7336219041773999E-2</v>
       </c>
       <c r="E24" s="4">
-        <v>0.12641461254866501</v>
+        <v>0.176315975543128</v>
       </c>
       <c r="F24" s="2">
-        <v>-4.72799708687031E-2</v>
+        <v>-5.1990749706657298E-2</v>
       </c>
       <c r="G24" s="3">
-        <v>-2.0378010450203401E-2</v>
+        <v>-1.11427544736487E-2</v>
       </c>
       <c r="H24" s="3">
-        <v>2.17787518483149E-16</v>
+        <v>-1.2354738695138999E-16</v>
       </c>
       <c r="I24" s="4">
-        <v>6.7657981318905505E-2</v>
+        <v>6.3133504180307595E-2</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -1336,28 +1336,28 @@
         <v>2024</v>
       </c>
       <c r="B25" s="2">
-        <v>-6.7529356446695804E-2</v>
+        <v>-0.11947632886045099</v>
       </c>
       <c r="C25" s="3">
-        <v>-4.7286168412270201E-2</v>
+        <v>-5.6765595705113102E-2</v>
       </c>
       <c r="D25" s="3">
-        <v>1.38039467343923E-3</v>
+        <v>2.0399102369468299E-2</v>
       </c>
       <c r="E25" s="4">
-        <v>0.113435130185528</v>
+        <v>0.15584282219609599</v>
       </c>
       <c r="F25" s="2">
-        <v>-4.5024504102428399E-2</v>
+        <v>-4.9378671709941598E-2</v>
       </c>
       <c r="G25" s="3">
-        <v>-1.8742339251582099E-2</v>
+        <v>-9.5022663544946095E-3</v>
       </c>
       <c r="H25" s="3">
-        <v>5.1426387559750099E-16</v>
+        <v>-2.7018836922834901E-17</v>
       </c>
       <c r="I25" s="4">
-        <v>6.3766843354009201E-2</v>
+        <v>5.8880938064437997E-2</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
@@ -1366,28 +1366,28 @@
         <v>2025</v>
       </c>
       <c r="B26" s="5">
-        <v>-6.1912288747755999E-2</v>
+        <v>-0.10341863156137</v>
       </c>
       <c r="C26" s="6">
-        <v>-4.1573149728676498E-2</v>
+        <v>-4.9119826517285803E-2</v>
       </c>
       <c r="D26" s="6">
-        <v>6.0466745197769304E-4</v>
+        <v>1.4697937977810599E-2</v>
       </c>
       <c r="E26" s="7">
-        <v>0.102880771024455</v>
+        <v>0.13784052010084599</v>
       </c>
       <c r="F26" s="5">
-        <v>-4.3013403916244398E-2</v>
+        <v>-4.70693537187881E-2</v>
       </c>
       <c r="G26" s="6">
-        <v>-1.7397056050807599E-2</v>
+        <v>-8.2230548256987893E-3</v>
       </c>
       <c r="H26" s="6">
-        <v>3.8749997806870599E-16</v>
+        <v>2.8838450315809399E-16</v>
       </c>
       <c r="I26" s="7">
-        <v>6.04104599670513E-2</v>
+        <v>5.5292408544486103E-2</v>
       </c>
     </row>
   </sheetData>
@@ -1399,7 +1399,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5767B37-3EBB-BA4D-AA34-047E7F3E071A}">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>

--- a/2-Empirical-Evidence/raw_data/ToPlotwithADH2021.xlsx
+++ b/2-Empirical-Evidence/raw_data/ToPlotwithADH2021.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vasquejp/Library/CloudStorage/Dropbox/0-mycomputer/mydocuments/0-LSE/0-Research/NK_trade/JP/Data_Construction/RUV/2-Empirical-Evidence/raw_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jpvasquez/Library/CloudStorage/Dropbox/0-mycomputer/mydocuments/0-LSE/0-Research/NK_trade/JP/Data_Construction/RUV/2-Empirical-Evidence/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24CAF58F-867C-8A40-B270-563D2B67BC20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9A93CEE-5E6D-484D-BEAA-9140C4D4D7B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4680" yWindow="500" windowWidth="33720" windowHeight="20180" xr2:uid="{8A2CBD73-2D71-4561-AAA5-C0EE9F01368C}"/>
+    <workbookView xWindow="3800" yWindow="500" windowWidth="21800" windowHeight="14620" xr2:uid="{8A2CBD73-2D71-4561-AAA5-C0EE9F01368C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -521,7 +521,7 @@
   <dimension ref="A1:DA26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:I26"/>
+      <selection activeCell="A2" sqref="A2:I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -563,28 +563,28 @@
         <v>2001</v>
       </c>
       <c r="B2" s="2">
-        <v>-0.111908730566753</v>
+        <v>-0.111159344899862</v>
       </c>
       <c r="C2" s="3">
-        <v>-5.9500491509698002E-2</v>
+        <v>-5.9245415271509699E-2</v>
       </c>
       <c r="D2" s="3">
-        <v>1.6461920599819099E-3</v>
+        <v>1.91264929354687E-3</v>
       </c>
       <c r="E2" s="4">
-        <v>0.16976303001648599</v>
+        <v>0.16849211087782201</v>
       </c>
       <c r="F2" s="2">
-        <v>-0.130288892879735</v>
+        <v>-0.129211829267771</v>
       </c>
       <c r="G2" s="3">
-        <v>-6.6205065145923905E-2</v>
+        <v>-6.7171855778143205E-2</v>
       </c>
       <c r="H2" s="3">
-        <v>1.51320024307274E-3</v>
+        <v>1.2568500564054501E-3</v>
       </c>
       <c r="I2" s="4">
-        <v>0.194980757782585</v>
+        <v>0.19512683498950401</v>
       </c>
     </row>
     <row r="3" spans="1:105" x14ac:dyDescent="0.2">
@@ -593,28 +593,28 @@
         <v>2002</v>
       </c>
       <c r="B3" s="2">
-        <v>-0.21360698733703301</v>
+        <v>-0.21162764800044201</v>
       </c>
       <c r="C3" s="3">
-        <v>-9.2515689887355507E-2</v>
+        <v>-9.2571848429001194E-2</v>
       </c>
       <c r="D3" s="3">
-        <v>3.8719393592960803E-2</v>
+        <v>3.83846470951867E-2</v>
       </c>
       <c r="E3" s="4">
-        <v>0.26740328363142102</v>
+        <v>0.26581484933425098</v>
       </c>
       <c r="F3" s="2">
-        <v>-0.25255504835555098</v>
+        <v>-0.25062439044096402</v>
       </c>
       <c r="G3" s="3">
-        <v>-0.10079119055905</v>
+        <v>-0.102515651693208</v>
       </c>
       <c r="H3" s="3">
-        <v>4.53874620416405E-2</v>
+        <v>4.4915389577604999E-2</v>
       </c>
       <c r="I3" s="4">
-        <v>0.30795877687296302</v>
+        <v>0.30822465255655801</v>
       </c>
     </row>
     <row r="4" spans="1:105" x14ac:dyDescent="0.2">
@@ -623,28 +623,28 @@
         <v>2003</v>
       </c>
       <c r="B4" s="2">
-        <v>-0.34093985115634601</v>
+        <v>-0.338181471201776</v>
       </c>
       <c r="C4" s="3">
-        <v>-0.12801763267159699</v>
+        <v>-0.128584855941242</v>
       </c>
       <c r="D4" s="3">
-        <v>9.4853371134447001E-2</v>
+        <v>9.4331019365948898E-2</v>
       </c>
       <c r="E4" s="4">
-        <v>0.37410411269349603</v>
+        <v>0.37243530777707001</v>
       </c>
       <c r="F4" s="2">
-        <v>-0.40045066250355499</v>
+        <v>-0.397906668787189</v>
       </c>
       <c r="G4" s="3">
-        <v>-0.136260778993674</v>
+        <v>-0.138798530548632</v>
       </c>
       <c r="H4" s="3">
-        <v>0.107250275901871</v>
+        <v>0.106836243989737</v>
       </c>
       <c r="I4" s="4">
-        <v>0.42946116559535602</v>
+        <v>0.42986895534608699</v>
       </c>
       <c r="W4" s="1"/>
       <c r="X4" s="1"/>
@@ -736,28 +736,28 @@
         <v>2004</v>
       </c>
       <c r="B5" s="2">
-        <v>-0.43837259391193401</v>
+        <v>-0.43526218625570401</v>
       </c>
       <c r="C5" s="3">
-        <v>-0.15135262918675099</v>
+        <v>-0.15261529446037</v>
       </c>
       <c r="D5" s="3">
-        <v>0.14582145027424601</v>
+        <v>0.145246113000565</v>
       </c>
       <c r="E5" s="4">
-        <v>0.44390377282444199</v>
+        <v>0.44263136771550399</v>
       </c>
       <c r="F5" s="2">
-        <v>-0.51137707515585895</v>
+        <v>-0.508448809645208</v>
       </c>
       <c r="G5" s="3">
-        <v>-0.155672709450731</v>
+        <v>-0.15871618551540501</v>
       </c>
       <c r="H5" s="3">
-        <v>0.16328923252392499</v>
+        <v>0.16290363805382599</v>
       </c>
       <c r="I5" s="4">
-        <v>0.50376055208265902</v>
+        <v>0.50426135710678599</v>
       </c>
     </row>
     <row r="6" spans="1:105" x14ac:dyDescent="0.2">
@@ -766,28 +766,28 @@
         <v>2005</v>
       </c>
       <c r="B6" s="2">
-        <v>-0.50221489266342001</v>
+        <v>-0.49921209599159</v>
       </c>
       <c r="C6" s="3">
-        <v>-0.169261132102275</v>
+        <v>-0.17114947782152801</v>
       </c>
       <c r="D6" s="3">
-        <v>0.176525074426615</v>
+        <v>0.176176951883839</v>
       </c>
       <c r="E6" s="4">
-        <v>0.49495095033907599</v>
+        <v>0.49418462192928098</v>
       </c>
       <c r="F6" s="2">
-        <v>-0.57966704223910004</v>
+        <v>-0.576767871954602</v>
       </c>
       <c r="G6" s="3">
-        <v>-0.16600267435907001</v>
+        <v>-0.169245780428256</v>
       </c>
       <c r="H6" s="3">
-        <v>0.19696882580817099</v>
+        <v>0.19681276563382499</v>
       </c>
       <c r="I6" s="4">
-        <v>0.54870089078999995</v>
+        <v>0.549200886749032</v>
       </c>
     </row>
     <row r="7" spans="1:105" x14ac:dyDescent="0.2">
@@ -796,28 +796,28 @@
         <v>2006</v>
       </c>
       <c r="B7" s="2">
-        <v>-0.548910091253907</v>
+        <v>-0.54606586997608497</v>
       </c>
       <c r="C7" s="3">
-        <v>-0.18295038743030601</v>
+        <v>-0.18533531950920301</v>
       </c>
       <c r="D7" s="3">
-        <v>0.20037066338368201</v>
+        <v>0.20022479899435999</v>
       </c>
       <c r="E7" s="4">
-        <v>0.53148981530053596</v>
+        <v>0.53117639049092302</v>
       </c>
       <c r="F7" s="2">
-        <v>-0.62824830013720001</v>
+        <v>-0.62546606647618297</v>
       </c>
       <c r="G7" s="3">
-        <v>-0.168145147715594</v>
+        <v>-0.17133968282772699</v>
       </c>
       <c r="H7" s="3">
-        <v>0.22974829962815399</v>
+        <v>0.229819103606206</v>
       </c>
       <c r="I7" s="4">
-        <v>0.56664514822464196</v>
+        <v>0.56698664569770096</v>
       </c>
     </row>
     <row r="8" spans="1:105" x14ac:dyDescent="0.2">
@@ -826,28 +826,28 @@
         <v>2007</v>
       </c>
       <c r="B8" s="2">
-        <v>-0.58053753920100204</v>
+        <v>-0.57787865357201096</v>
       </c>
       <c r="C8" s="3">
-        <v>-0.193441585508559</v>
+        <v>-0.19613668106496401</v>
       </c>
       <c r="D8" s="3">
-        <v>0.220994992188696</v>
+        <v>0.221003283185667</v>
       </c>
       <c r="E8" s="4">
-        <v>0.55298413252086098</v>
+        <v>0.55301205145131005</v>
       </c>
       <c r="F8" s="2">
-        <v>-0.60815582227099596</v>
+        <v>-0.60535992913185899</v>
       </c>
       <c r="G8" s="3">
-        <v>-0.165806470828679</v>
+        <v>-0.168644263618204</v>
       </c>
       <c r="H8" s="3">
-        <v>0.220985119679555</v>
+        <v>0.22100095254098201</v>
       </c>
       <c r="I8" s="4">
-        <v>0.55297717342012298</v>
+        <v>0.55300324020908098</v>
       </c>
     </row>
     <row r="9" spans="1:105" x14ac:dyDescent="0.2">
@@ -856,28 +856,28 @@
         <v>2008</v>
       </c>
       <c r="B9" s="2">
-        <v>-0.53183903346925698</v>
+        <v>-0.52928928377568696</v>
       </c>
       <c r="C9" s="3">
-        <v>-0.202554116211424</v>
+        <v>-0.205314050461335</v>
       </c>
       <c r="D9" s="3">
-        <v>0.176753513641532</v>
+        <v>0.176703055041668</v>
       </c>
       <c r="E9" s="4">
-        <v>0.55763963603914901</v>
+        <v>0.55790027919535601</v>
       </c>
       <c r="F9" s="2">
-        <v>-0.54397682448539397</v>
+        <v>-0.54106642369306102</v>
       </c>
       <c r="G9" s="3">
-        <v>-0.15923765660092101</v>
+        <v>-0.161547514375454</v>
       </c>
       <c r="H9" s="3">
-        <v>0.19051022521059799</v>
+        <v>0.19029180111834901</v>
       </c>
       <c r="I9" s="4">
-        <v>0.512704255875716</v>
+        <v>0.51232213695016704</v>
       </c>
     </row>
     <row r="10" spans="1:105" x14ac:dyDescent="0.2">
@@ -886,28 +886,28 @@
         <v>2009</v>
       </c>
       <c r="B10" s="2">
-        <v>-0.50768058665862204</v>
+        <v>-0.50527841009749497</v>
       </c>
       <c r="C10" s="3">
-        <v>-0.20644931475379599</v>
+        <v>-0.20927487330989</v>
       </c>
       <c r="D10" s="3">
-        <v>0.157045052485034</v>
+        <v>0.157014000217472</v>
       </c>
       <c r="E10" s="4">
-        <v>0.55708484892738297</v>
+        <v>0.55753928318991497</v>
       </c>
       <c r="F10" s="2">
-        <v>-0.43964035045157202</v>
+        <v>-0.43658929582572997</v>
       </c>
       <c r="G10" s="3">
-        <v>-0.149306131512976</v>
+        <v>-0.15103791025933899</v>
       </c>
       <c r="H10" s="3">
-        <v>0.13441778407958399</v>
+        <v>0.13387777330037101</v>
       </c>
       <c r="I10" s="4">
-        <v>0.45452869788496397</v>
+        <v>0.45374943278469998</v>
       </c>
     </row>
     <row r="11" spans="1:105" x14ac:dyDescent="0.2">
@@ -916,28 +916,28 @@
         <v>2010</v>
       </c>
       <c r="B11" s="2">
-        <v>-0.50993622679001205</v>
+        <v>-0.50767489746540495</v>
       </c>
       <c r="C11" s="3">
-        <v>-0.20447908948697699</v>
+        <v>-0.207406321276146</v>
       </c>
       <c r="D11" s="3">
-        <v>0.159587648306761</v>
+        <v>0.15963152180335699</v>
       </c>
       <c r="E11" s="4">
-        <v>0.55482766797022798</v>
+        <v>0.55544969693819402</v>
       </c>
       <c r="F11" s="2">
-        <v>-0.35305755306350201</v>
+        <v>-0.34989781211566001</v>
       </c>
       <c r="G11" s="3">
-        <v>-0.13481790531381599</v>
+        <v>-0.13610240245177299</v>
       </c>
       <c r="H11" s="3">
-        <v>9.5648957375108895E-2</v>
+        <v>9.4869932182156197E-2</v>
       </c>
       <c r="I11" s="4">
-        <v>0.39222650100221101</v>
+        <v>0.39113028238527398</v>
       </c>
     </row>
     <row r="12" spans="1:105" x14ac:dyDescent="0.2">
@@ -946,28 +946,28 @@
         <v>2011</v>
       </c>
       <c r="B12" s="2">
-        <v>-0.536617176644274</v>
+        <v>-0.53452595254189095</v>
       </c>
       <c r="C12" s="3">
-        <v>-0.198547032782</v>
+        <v>-0.201545053525444</v>
       </c>
       <c r="D12" s="3">
-        <v>0.187262041813784</v>
+        <v>0.18744740700361601</v>
       </c>
       <c r="E12" s="4">
-        <v>0.547902167612491</v>
+        <v>0.54862359906371605</v>
       </c>
       <c r="F12" s="2">
-        <v>-0.27971464934194901</v>
+        <v>-0.27631611491394398</v>
       </c>
       <c r="G12" s="3">
-        <v>-0.117851684867835</v>
+        <v>-0.118833961618917</v>
       </c>
       <c r="H12" s="3">
-        <v>6.5326369161664302E-2</v>
+        <v>6.4212533247879594E-2</v>
       </c>
       <c r="I12" s="4">
-        <v>0.33223996504812198</v>
+        <v>0.33093754328498098</v>
       </c>
     </row>
     <row r="13" spans="1:105" x14ac:dyDescent="0.2">
@@ -976,28 +976,28 @@
         <v>2012</v>
       </c>
       <c r="B13" s="2">
-        <v>-0.51660144563364996</v>
+        <v>-0.51460888524390802</v>
       </c>
       <c r="C13" s="3">
-        <v>-0.19197267517955499</v>
+        <v>-0.19485375812349001</v>
       </c>
       <c r="D13" s="3">
-        <v>0.18035707568210499</v>
+        <v>0.180544245934988</v>
       </c>
       <c r="E13" s="4">
-        <v>0.52821704513110102</v>
+        <v>0.52891839743240998</v>
       </c>
       <c r="F13" s="2">
-        <v>-0.217469607466797</v>
+        <v>-0.213938789062005</v>
       </c>
       <c r="G13" s="3">
-        <v>-0.100559034588348</v>
+        <v>-0.101338622385735</v>
       </c>
       <c r="H13" s="3">
-        <v>4.0210024501904099E-2</v>
+        <v>3.8819552809794898E-2</v>
       </c>
       <c r="I13" s="4">
-        <v>0.277818617553239</v>
+        <v>0.27645785863794498</v>
       </c>
     </row>
     <row r="14" spans="1:105" x14ac:dyDescent="0.2">
@@ -1006,28 +1006,28 @@
         <v>2013</v>
       </c>
       <c r="B14" s="2">
-        <v>-0.45978946412633598</v>
+        <v>-0.45784430007460403</v>
       </c>
       <c r="C14" s="3">
-        <v>-0.18495243507391099</v>
+        <v>-0.18757059107650401</v>
       </c>
       <c r="D14" s="3">
-        <v>0.148112534759369</v>
+        <v>0.14820932644588</v>
       </c>
       <c r="E14" s="4">
-        <v>0.49662936444088002</v>
+        <v>0.49720556470522698</v>
       </c>
       <c r="F14" s="2">
-        <v>-0.16790522043527001</v>
+        <v>-0.16469146275996599</v>
       </c>
       <c r="G14" s="3">
-        <v>-8.4310113422746094E-2</v>
+        <v>-8.4927273973829404E-2</v>
       </c>
       <c r="H14" s="3">
-        <v>2.1336584939142599E-2</v>
+        <v>1.9978033451441099E-2</v>
       </c>
       <c r="I14" s="4">
-        <v>0.230878748918873</v>
+        <v>0.229640703282354</v>
       </c>
     </row>
     <row r="15" spans="1:105" x14ac:dyDescent="0.2">
@@ -1036,28 +1036,28 @@
         <v>2014</v>
       </c>
       <c r="B15" s="2">
-        <v>-0.41048526595238699</v>
+        <v>-0.40854288589061</v>
       </c>
       <c r="C15" s="3">
-        <v>-0.17543002956435499</v>
+        <v>-0.177767158972854</v>
       </c>
       <c r="D15" s="3">
-        <v>0.125831799351414</v>
+        <v>0.12583146255864</v>
       </c>
       <c r="E15" s="4">
-        <v>0.46008349616533001</v>
+        <v>0.46047858230482303</v>
       </c>
       <c r="F15" s="2">
-        <v>-0.13224758726861999</v>
+        <v>-0.129871808798459</v>
       </c>
       <c r="G15" s="3">
-        <v>-6.96726826905575E-2</v>
+        <v>-7.0156915238182502E-2</v>
       </c>
       <c r="H15" s="3">
-        <v>9.7297192867421903E-3</v>
+        <v>8.7875946432732395E-3</v>
       </c>
       <c r="I15" s="4">
-        <v>0.19219055067243601</v>
+        <v>0.19124112939336901</v>
       </c>
     </row>
     <row r="16" spans="1:105" x14ac:dyDescent="0.2">
@@ -1066,28 +1066,28 @@
         <v>2015</v>
       </c>
       <c r="B16" s="2">
-        <v>-0.36722315416526602</v>
+        <v>-0.365217359483826</v>
       </c>
       <c r="C16" s="3">
-        <v>-0.16370036766533</v>
+        <v>-0.16577212436491001</v>
       </c>
       <c r="D16" s="3">
-        <v>0.108796926899364</v>
+        <v>0.10867642515546599</v>
       </c>
       <c r="E16" s="4">
-        <v>0.422126594931233</v>
+        <v>0.42231305869326802</v>
       </c>
       <c r="F16" s="2">
-        <v>-0.10884644430446801</v>
+        <v>-0.107352540697584</v>
       </c>
       <c r="G16" s="3">
-        <v>-5.6852518681894303E-2</v>
+        <v>-5.72644580261603E-2</v>
       </c>
       <c r="H16" s="3">
-        <v>4.3242587957168701E-3</v>
+        <v>3.8221704080163002E-3</v>
       </c>
       <c r="I16" s="4">
-        <v>0.16137470419064601</v>
+        <v>0.160794828315729</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -1096,28 +1096,28 @@
         <v>2016</v>
       </c>
       <c r="B17" s="2">
-        <v>-0.32873395028853702</v>
+        <v>-0.32657516340919501</v>
       </c>
       <c r="C17" s="3">
-        <v>-0.15059972589409201</v>
+        <v>-0.15243357478432101</v>
       </c>
       <c r="D17" s="3">
-        <v>9.4751126286582193E-2</v>
+        <v>9.4460675553072707E-2</v>
       </c>
       <c r="E17" s="4">
-        <v>0.38458254989604801</v>
+        <v>0.384548062640442</v>
       </c>
       <c r="F17" s="2">
-        <v>-9.3154355141521497E-2</v>
+        <v>-9.2236572543473894E-2</v>
       </c>
       <c r="G17" s="3">
-        <v>-4.5958960602288497E-2</v>
+        <v>-4.6381202576176103E-2</v>
       </c>
       <c r="H17" s="3">
-        <v>1.9401126688001801E-3</v>
+        <v>1.66537394660098E-3</v>
       </c>
       <c r="I17" s="4">
-        <v>0.13717320307500999</v>
+        <v>0.13695240117304799</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -1126,28 +1126,28 @@
         <v>2017</v>
       </c>
       <c r="B18" s="2">
-        <v>-0.29400156546914802</v>
+        <v>-0.29170324918782897</v>
       </c>
       <c r="C18" s="3">
-        <v>-0.13692622354206599</v>
+        <v>-0.138547834387928</v>
       </c>
       <c r="D18" s="3">
-        <v>8.2519898670016606E-2</v>
+        <v>8.2083940731648805E-2</v>
       </c>
       <c r="E18" s="4">
-        <v>0.34840789034119701</v>
+        <v>0.34816714284410699</v>
       </c>
       <c r="F18" s="2">
-        <v>-8.1945263418446004E-2</v>
+        <v>-8.1417428565171798E-2</v>
       </c>
       <c r="G18" s="3">
-        <v>-3.6998886383217203E-2</v>
+        <v>-3.74696644029286E-2</v>
       </c>
       <c r="H18" s="3">
-        <v>7.5135516653747803E-4</v>
+        <v>6.04065831768938E-4</v>
       </c>
       <c r="I18" s="4">
-        <v>0.118192794635125</v>
+        <v>0.118283027136329</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -1156,28 +1156,28 @@
         <v>2018</v>
       </c>
       <c r="B19" s="2">
-        <v>-0.26229991512238099</v>
+        <v>-0.25989213329060301</v>
       </c>
       <c r="C19" s="3">
-        <v>-0.12329092986974501</v>
+        <v>-0.12472547587596899</v>
       </c>
       <c r="D19" s="3">
-        <v>7.1481658588557206E-2</v>
+        <v>7.0926077422947306E-2</v>
       </c>
       <c r="E19" s="4">
-        <v>0.314109186403569</v>
+        <v>0.31369153174362402</v>
       </c>
       <c r="F19" s="2">
-        <v>-7.3712946192796905E-2</v>
+        <v>-7.3427814631925506E-2</v>
       </c>
       <c r="G19" s="3">
-        <v>-2.9782087629798101E-2</v>
+        <v>-3.0316286162896802E-2</v>
       </c>
       <c r="H19" s="3">
-        <v>2.34690873656126E-4</v>
+        <v>1.40337247546925E-4</v>
       </c>
       <c r="I19" s="4">
-        <v>0.103260342948939</v>
+        <v>0.103603763547276</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -1186,28 +1186,28 @@
         <v>2019</v>
       </c>
       <c r="B20" s="2">
-        <v>-0.23329261956376099</v>
+        <v>-0.23082698943193899</v>
       </c>
       <c r="C20" s="3">
-        <v>-0.11010104281804001</v>
+        <v>-0.111372470669884</v>
       </c>
       <c r="D20" s="3">
-        <v>6.1437328108859601E-2</v>
+        <v>6.07993736929014E-2</v>
       </c>
       <c r="E20" s="4">
-        <v>0.28195633427294198</v>
+        <v>0.281400086408921</v>
       </c>
       <c r="F20" s="2">
-        <v>-6.7480943695072904E-2</v>
+        <v>-6.74372613351992E-2</v>
       </c>
       <c r="G20" s="3">
-        <v>-2.40407112281192E-2</v>
+        <v>-2.4628580495711198E-2</v>
       </c>
       <c r="H20" s="3">
-        <v>7.6918893912030197E-5</v>
+        <v>7.3464892750860799E-5</v>
       </c>
       <c r="I20" s="4">
-        <v>9.1444736029278703E-2</v>
+        <v>9.1992376938158302E-2</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -1216,28 +1216,28 @@
         <v>2020</v>
       </c>
       <c r="B21" s="2">
-        <v>-0.20657872347494299</v>
+        <v>-0.204047948315281</v>
       </c>
       <c r="C21" s="3">
-        <v>-9.7609559996180095E-2</v>
+        <v>-9.8745183308040302E-2</v>
       </c>
       <c r="D21" s="3">
-        <v>5.2123781471446903E-2</v>
+        <v>5.1394476766173397E-2</v>
       </c>
       <c r="E21" s="4">
-        <v>0.25206450199967601</v>
+        <v>0.25139865485714702</v>
       </c>
       <c r="F21" s="2">
-        <v>-6.2547062620415705E-2</v>
+        <v>-6.2577078743692893E-2</v>
       </c>
       <c r="G21" s="3">
-        <v>-1.9519266859309398E-2</v>
+        <v>-2.01716471489485E-2</v>
       </c>
       <c r="H21" s="3">
-        <v>4.8347665644811497E-5</v>
+        <v>3.14566893227672E-5</v>
       </c>
       <c r="I21" s="4">
-        <v>8.2017981814079696E-2</v>
+        <v>8.2717269203317803E-2</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -1246,28 +1246,28 @@
         <v>2021</v>
       </c>
       <c r="B22" s="2">
-        <v>-0.18186151617781299</v>
+        <v>-0.179187076686493</v>
       </c>
       <c r="C22" s="3">
-        <v>-8.5956784929816094E-2</v>
+        <v>-8.6985960436532006E-2</v>
       </c>
       <c r="D22" s="3">
-        <v>4.3344718144119103E-2</v>
+        <v>4.24547598802274E-2</v>
       </c>
       <c r="E22" s="4">
-        <v>0.224473582963509</v>
+        <v>0.223718277242797</v>
       </c>
       <c r="F22" s="2">
-        <v>-5.8437393503104798E-2</v>
+        <v>-5.8545798153626802E-2</v>
       </c>
       <c r="G22" s="3">
-        <v>-1.5996729147535999E-2</v>
+        <v>-1.67027334427019E-2</v>
       </c>
       <c r="H22" s="3">
-        <v>1.26384109608492E-5</v>
+        <v>1.5726739295051299E-5</v>
       </c>
       <c r="I22" s="4">
-        <v>7.4421484239680202E-2</v>
+        <v>7.5232804857034194E-2</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -1276,28 +1276,28 @@
         <v>2022</v>
       </c>
       <c r="B23" s="2">
-        <v>-0.158981906738905</v>
+        <v>-0.156179712522688</v>
       </c>
       <c r="C23" s="3">
-        <v>-7.5223102852712095E-2</v>
+        <v>-7.6174341477377103E-2</v>
       </c>
       <c r="D23" s="3">
-        <v>3.49966550619304E-2</v>
+        <v>3.3964017837801598E-2</v>
       </c>
       <c r="E23" s="4">
-        <v>0.19920835452968499</v>
+        <v>0.198390036162264</v>
       </c>
       <c r="F23" s="2">
-        <v>-5.4989150616087799E-2</v>
+        <v>-5.5116431003414498E-2</v>
       </c>
       <c r="G23" s="3">
-        <v>-1.32585423617079E-2</v>
+        <v>-1.40147162806311E-2</v>
       </c>
       <c r="H23" s="3">
-        <v>1.4207682041735501E-5</v>
+        <v>7.1735033364576301E-6</v>
       </c>
       <c r="I23" s="4">
-        <v>6.8233485295754195E-2</v>
+        <v>6.9123973780709599E-2</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
@@ -1306,28 +1306,28 @@
         <v>2023</v>
       </c>
       <c r="B24" s="2">
-        <v>-0.13818631097640999</v>
+        <v>-0.13514986458618999</v>
       </c>
       <c r="C24" s="3">
-        <v>-6.5465883608492106E-2</v>
+        <v>-6.6383968003490501E-2</v>
       </c>
       <c r="D24" s="3">
-        <v>2.7336219041773999E-2</v>
+        <v>2.6072488649350099E-2</v>
       </c>
       <c r="E24" s="4">
-        <v>0.176315975543128</v>
+        <v>0.175461343940329</v>
       </c>
       <c r="F24" s="2">
-        <v>-5.1990749706657298E-2</v>
+        <v>-5.21467818896423E-2</v>
       </c>
       <c r="G24" s="3">
-        <v>-1.11427544736487E-2</v>
+        <v>-1.19316224715749E-2</v>
       </c>
       <c r="H24" s="3">
-        <v>-1.2354738695138999E-16</v>
+        <v>4.2084930006098299E-17</v>
       </c>
       <c r="I24" s="4">
-        <v>6.3133504180307595E-2</v>
+        <v>6.4078404361217006E-2</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -1336,28 +1336,28 @@
         <v>2024</v>
       </c>
       <c r="B25" s="2">
-        <v>-0.11947632886045099</v>
+        <v>-0.11639442593864301</v>
       </c>
       <c r="C25" s="3">
-        <v>-5.6765595705113102E-2</v>
+        <v>-5.7666124291710398E-2</v>
       </c>
       <c r="D25" s="3">
-        <v>2.0399102369468299E-2</v>
+        <v>1.9049551955192399E-2</v>
       </c>
       <c r="E25" s="4">
-        <v>0.15584282219609599</v>
+        <v>0.15501099827515999</v>
       </c>
       <c r="F25" s="2">
-        <v>-4.9378671709941598E-2</v>
+        <v>-4.95520658545585E-2</v>
       </c>
       <c r="G25" s="3">
-        <v>-9.5022663544946095E-3</v>
+        <v>-1.0308123491140899E-2</v>
       </c>
       <c r="H25" s="3">
-        <v>-2.7018836922834901E-17</v>
+        <v>-7.1416825862024601E-17</v>
       </c>
       <c r="I25" s="4">
-        <v>5.8880938064437997E-2</v>
+        <v>5.9860189345699602E-2</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
@@ -1366,28 +1366,28 @@
         <v>2025</v>
       </c>
       <c r="B26" s="5">
-        <v>-0.10341863156137</v>
+        <v>-0.100384870472323</v>
       </c>
       <c r="C26" s="6">
-        <v>-4.9119826517285803E-2</v>
+        <v>-5.0019839080024497E-2</v>
       </c>
       <c r="D26" s="6">
-        <v>1.4697937977810599E-2</v>
+        <v>1.33035164192821E-2</v>
       </c>
       <c r="E26" s="7">
-        <v>0.13784052010084599</v>
+        <v>0.13710119313306399</v>
       </c>
       <c r="F26" s="5">
-        <v>-4.70693537187881E-2</v>
+        <v>-4.7256630960048597E-2</v>
       </c>
       <c r="G26" s="6">
-        <v>-8.2230548256987893E-3</v>
+        <v>-9.0339074037899796E-3</v>
       </c>
       <c r="H26" s="6">
-        <v>2.8838450315809399E-16</v>
+        <v>-2.6113151795291299E-16</v>
       </c>
       <c r="I26" s="7">
-        <v>5.5292408544486103E-2</v>
+        <v>5.6290538363839501E-2</v>
       </c>
     </row>
   </sheetData>
